--- a/231201/10월 월간 메뉴표.xlsx
+++ b/231201/10월 월간 메뉴표.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\white\Dropbox\패밀리룸\LSCP행정\6. 학교운영\4. 학생식사, 식대관리\2023 메뉴\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhyukoh/Documents/Personal Tutor/sy0403/231201/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEF3BD9-604E-4D4D-9BCE-BE797C4A46AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FD54C4-5E01-F24B-91C6-84B241D2268F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="28800" windowHeight="15450" activeTab="1" xr2:uid="{11373602-D964-4A5C-B835-771C417587AD}"/>
+    <workbookView xWindow="4480" yWindow="600" windowWidth="26240" windowHeight="15020" activeTab="1" xr2:uid="{11373602-D964-4A5C-B835-771C417587AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="예스폼" localSheetId="0">Sheet1!$A$2</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
   <si>
     <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,7 +96,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -107,7 +108,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -298,26 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부추제육볶음</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>콰트로치즈와퍼주니어세트</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>고치돈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>날치알김치볶음밥</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>차돌김치찌개</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,20 +495,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -557,7 +538,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -565,7 +546,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -610,7 +591,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -620,7 +601,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -662,7 +643,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -947,7 +928,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,7 +987,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1022,7 +1003,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1323,16 +1304,16 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="23.25" customHeight="1">
       <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1323,7 @@
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="23.25" customHeight="1">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -1350,7 +1331,7 @@
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -1360,7 +1341,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -1396,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="98.25" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
@@ -1412,7 +1393,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -1432,7 +1413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="98.25" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
@@ -1458,7 +1439,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
@@ -1478,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="98.25" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
@@ -1521,7 +1502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="98.25" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>47</v>
       </c>
@@ -1539,7 +1520,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="14" t="s">
         <v>33</v>
       </c>
@@ -1551,7 +1532,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="98.25" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>52</v>
       </c>
@@ -1563,7 +1544,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="36" t="s">
         <v>12</v>
       </c>
@@ -1572,7 +1553,7 @@
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="36" t="s">
         <v>13</v>
       </c>
@@ -1595,22 +1576,346 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22FF4C7-F3A9-F841-B486-20B5F3A56A8A}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="56">
+      <c r="A5" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="99">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22">
+        <v>6600</v>
+      </c>
+      <c r="D7" s="22">
+        <v>9900</v>
+      </c>
+      <c r="E7" s="22">
+        <v>9800</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="64">
+      <c r="A8" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="140">
+      <c r="A9" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75">
+      <c r="A10" s="27">
+        <v>10500</v>
+      </c>
+      <c r="B10" s="22">
+        <v>8900</v>
+      </c>
+      <c r="C10" s="22">
+        <v>7900</v>
+      </c>
+      <c r="D10" s="22">
+        <v>8200</v>
+      </c>
+      <c r="E10" s="27">
+        <v>8000</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="56">
+      <c r="A11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="165">
+      <c r="A12" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="32">
+      <c r="A13" s="22">
+        <v>8900</v>
+      </c>
+      <c r="B13" s="22">
+        <v>8600</v>
+      </c>
+      <c r="C13" s="22">
+        <v>11900</v>
+      </c>
+      <c r="D13" s="22">
+        <v>7400</v>
+      </c>
+      <c r="E13" s="22">
+        <v>8000</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="56">
+      <c r="A14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="165">
+      <c r="A15" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="32">
+      <c r="A16" s="22">
+        <v>9000</v>
+      </c>
+      <c r="B16" s="22">
+        <v>8500</v>
+      </c>
+      <c r="C16" s="23">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="24">
+        <v>8900</v>
+      </c>
+      <c r="E16" s="28">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="56">
+      <c r="A17" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="150">
+      <c r="A18" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="32">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84E5508-BC6C-4800-94E2-40DD52CE0799}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E18"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E19" sqref="A5:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="13.625" customWidth="1"/>
+    <col min="1" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" customHeight="1">
       <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
@@ -1619,21 +1924,21 @@
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
     </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="30" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="30" customHeight="1">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
       <c r="E3" s="42"/>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="30" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
@@ -1650,37 +1955,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" ht="60" customHeight="1">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22">
@@ -1692,46 +1997,42 @@
       <c r="E7" s="22">
         <v>9800</v>
       </c>
-      <c r="F7">
-        <f>AVERAGE(A7:E7)</f>
-        <v>8766.6666666666661</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27.75" customHeight="1">
       <c r="A10" s="27">
         <v>10500</v>
       </c>
@@ -1747,61 +2048,47 @@
       <c r="E10" s="27">
         <v>8000</v>
       </c>
-      <c r="F10">
-        <f>AVERAGE(A10:E10)</f>
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="27.75" customHeight="1">
       <c r="A13" s="22">
         <v>8900</v>
       </c>
@@ -1816,10 +2103,6 @@
       </c>
       <c r="E13" s="22">
         <v>8000</v>
-      </c>
-      <c r="F13">
-        <f>AVERAGE(A13:E13)</f>
-        <v>8960</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -1827,39 +2110,39 @@
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="30" customHeight="1">
       <c r="A14" s="26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="60" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="27.75" customHeight="1">
       <c r="A16" s="22">
         <v>9000</v>
       </c>
@@ -1875,49 +2158,45 @@
       <c r="E16" s="28">
         <v>8700</v>
       </c>
-      <c r="F16">
-        <f>AVERAGE(A16:E16)</f>
-        <v>9020</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D17" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" ht="29.25" customHeight="1">
       <c r="A19" s="31">
         <v>10000</v>
       </c>
@@ -1933,34 +2212,26 @@
       <c r="E19" s="28">
         <v>8900</v>
       </c>
-      <c r="F19">
-        <f>AVERAGE(A19:E20)</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
-      <c r="F20">
-        <f>AVERAGE(F7,F10,F13,F16,F19)</f>
-        <v>8689.3333333333321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="E22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
